--- a/Code/Results/Cases/Case_5_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_248/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8031530656106156</v>
+        <v>0.2626439540343881</v>
       </c>
       <c r="C2">
-        <v>0.1394876803215652</v>
+        <v>0.0446708425689053</v>
       </c>
       <c r="D2">
-        <v>0.06209140578456385</v>
+        <v>0.02909498636205399</v>
       </c>
       <c r="E2">
-        <v>0.3361519779243949</v>
+        <v>0.1616557201687172</v>
       </c>
       <c r="F2">
-        <v>0.4627096534770345</v>
+        <v>0.6761016312668175</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2523244910408593</v>
+        <v>0.51424661532889</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8900909318217316</v>
+        <v>0.2759508768190813</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5990857558848219</v>
+        <v>0.2237944772581884</v>
       </c>
       <c r="N2">
-        <v>0.6691213628423561</v>
+        <v>1.393739124542983</v>
       </c>
       <c r="O2">
-        <v>1.320840753976967</v>
+        <v>2.309787272667847</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6992702390071202</v>
+        <v>0.2312670127791705</v>
       </c>
       <c r="C3">
-        <v>0.1229078877909018</v>
+        <v>0.0394850306292085</v>
       </c>
       <c r="D3">
-        <v>0.05571439361097674</v>
+        <v>0.02690771662441449</v>
       </c>
       <c r="E3">
-        <v>0.2924777773371758</v>
+        <v>0.1506542875430625</v>
       </c>
       <c r="F3">
-        <v>0.4351880299789457</v>
+        <v>0.6739632195842447</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2515455513159992</v>
+        <v>0.5177883982839653</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.776313753973298</v>
+        <v>0.2412588829808584</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5187421690662717</v>
+        <v>0.2014137900475745</v>
       </c>
       <c r="N3">
-        <v>0.7054736937886713</v>
+        <v>1.409158980308023</v>
       </c>
       <c r="O3">
-        <v>1.275077932519054</v>
+        <v>2.315259363369776</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6355344610799136</v>
+        <v>0.2119921810150061</v>
       </c>
       <c r="C4">
-        <v>0.1127319071947568</v>
+        <v>0.03628295256886815</v>
       </c>
       <c r="D4">
-        <v>0.05178310933954577</v>
+        <v>0.02555262494085753</v>
       </c>
       <c r="E4">
-        <v>0.2661328116176662</v>
+        <v>0.1440088162510449</v>
       </c>
       <c r="F4">
-        <v>0.4191414972645688</v>
+        <v>0.6730606114818301</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2516024330172755</v>
+        <v>0.520234893108146</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7064963363416012</v>
+        <v>0.2199201065871108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4698066342716416</v>
+        <v>0.1877455117827651</v>
       </c>
       <c r="N4">
-        <v>0.7287700081056387</v>
+        <v>1.419109454894444</v>
       </c>
       <c r="O4">
-        <v>1.249669935445013</v>
+        <v>2.3199387537679</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6095657327864785</v>
+        <v>0.2041356344397798</v>
       </c>
       <c r="C5">
-        <v>0.1085844079153588</v>
+        <v>0.03497359817490064</v>
       </c>
       <c r="D5">
-        <v>0.05017687924837588</v>
+        <v>0.02499740016403962</v>
       </c>
       <c r="E5">
-        <v>0.2555028229897331</v>
+        <v>0.1413280663308143</v>
       </c>
       <c r="F5">
-        <v>0.4128050585194245</v>
+        <v>0.6727960059232956</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2517545814574547</v>
+        <v>0.5213002022678914</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6780463227585756</v>
+        <v>0.2112153133948453</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4499504351346815</v>
+        <v>0.1821940663906858</v>
       </c>
       <c r="N5">
-        <v>0.7385025905128439</v>
+        <v>1.423285683620098</v>
       </c>
       <c r="O5">
-        <v>1.239959128274236</v>
+        <v>2.322177404874338</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6052536650384184</v>
+        <v>0.2028309590987476</v>
       </c>
       <c r="C6">
-        <v>0.1078956276162728</v>
+        <v>0.03475591128281508</v>
       </c>
       <c r="D6">
-        <v>0.04990990573193699</v>
+        <v>0.02490502431876962</v>
       </c>
       <c r="E6">
-        <v>0.2537437540616168</v>
+        <v>0.1408845752026195</v>
       </c>
       <c r="F6">
-        <v>0.4117648099602818</v>
+        <v>0.6727583028703208</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2517874761425105</v>
+        <v>0.5214812234795403</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6733220225320196</v>
+        <v>0.2097693539012795</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4466580907819733</v>
+        <v>0.1812733696292739</v>
       </c>
       <c r="N6">
-        <v>0.7401329455048156</v>
+        <v>1.42398647040066</v>
       </c>
       <c r="O6">
-        <v>1.238384554800078</v>
+        <v>2.322569167672839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6351842314700207</v>
+        <v>0.2118862319836694</v>
       </c>
       <c r="C7">
-        <v>0.1126759776356892</v>
+        <v>0.03626531225560825</v>
       </c>
       <c r="D7">
-        <v>0.05176146446337526</v>
+        <v>0.02554514915053119</v>
       </c>
       <c r="E7">
-        <v>0.2659890397476232</v>
+        <v>0.1439725522973916</v>
       </c>
       <c r="F7">
-        <v>0.4190552361718431</v>
+        <v>0.6730566249812213</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2516039699658883</v>
+        <v>0.5202489835371296</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.706112656982441</v>
+        <v>0.2198027468574821</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.469538518793243</v>
+        <v>0.1876705681960402</v>
       </c>
       <c r="N7">
-        <v>0.7289003048431024</v>
+        <v>1.419165285756348</v>
       </c>
       <c r="O7">
-        <v>1.249536410963501</v>
+        <v>2.31996760176375</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.767319099238307</v>
+        <v>0.2518273575386729</v>
       </c>
       <c r="C8">
-        <v>0.1337690434993704</v>
+        <v>0.04288652456628483</v>
       </c>
       <c r="D8">
-        <v>0.05989573930587966</v>
+        <v>0.02834334347537038</v>
       </c>
       <c r="E8">
-        <v>0.3209874566408075</v>
+        <v>0.157839591933346</v>
       </c>
       <c r="F8">
-        <v>0.4530362644552994</v>
+        <v>0.6752791407178051</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2519413889161086</v>
+        <v>0.5154113981854245</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8508459007229021</v>
+        <v>0.2639971570716853</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.571292408153802</v>
+        <v>0.2160623391304739</v>
       </c>
       <c r="N8">
-        <v>0.6814492718755795</v>
+        <v>1.398955706616188</v>
       </c>
       <c r="O8">
-        <v>1.30448268644507</v>
+        <v>2.311400157977289</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.027222840916068</v>
+        <v>0.3300630182176576</v>
       </c>
       <c r="C9">
-        <v>0.1752499867457686</v>
+        <v>0.0557271054068309</v>
       </c>
       <c r="D9">
-        <v>0.07573377622149025</v>
+        <v>0.0337335709402069</v>
       </c>
       <c r="E9">
-        <v>0.4331911289746273</v>
+        <v>0.1859112902867395</v>
       </c>
       <c r="F9">
-        <v>0.5269839232662434</v>
+        <v>0.6828940875429979</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2571153592020323</v>
+        <v>0.5080824076852686</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.135469389474792</v>
+        <v>0.350348169602114</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7746554342220122</v>
+        <v>0.2723253808234247</v>
       </c>
       <c r="N9">
-        <v>0.5964340686809084</v>
+        <v>1.363154859715013</v>
       </c>
       <c r="O9">
-        <v>1.435174761226534</v>
+        <v>2.305073390092872</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.219264829046892</v>
+        <v>0.3874736691849989</v>
       </c>
       <c r="C10">
-        <v>0.205927072414184</v>
+        <v>0.06507303656532315</v>
       </c>
       <c r="D10">
-        <v>0.08731947791110173</v>
+        <v>0.03763359301458991</v>
       </c>
       <c r="E10">
-        <v>0.5191994359983383</v>
+        <v>0.2070871077645222</v>
       </c>
       <c r="F10">
-        <v>0.5865854867583593</v>
+        <v>0.6904764574293978</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2640586233124438</v>
+        <v>0.5040143433520683</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.345781279538187</v>
+        <v>0.4135852775735884</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9274244938388705</v>
+        <v>0.3140283333137361</v>
       </c>
       <c r="N10">
-        <v>0.5392993648172355</v>
+        <v>1.339186956067694</v>
       </c>
       <c r="O10">
-        <v>1.547534308687688</v>
+        <v>2.306819930583288</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307012893512251</v>
+        <v>0.4135734076572817</v>
       </c>
       <c r="C11">
-        <v>0.2199578237363227</v>
+        <v>0.0693055693616742</v>
       </c>
       <c r="D11">
-        <v>0.09258356289959835</v>
+        <v>0.03939454736510584</v>
       </c>
       <c r="E11">
-        <v>0.5593245448704636</v>
+        <v>0.2168438565599402</v>
       </c>
       <c r="F11">
-        <v>0.6150378782978407</v>
+        <v>0.6943580956012454</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2679921858061576</v>
+        <v>0.5024498549212915</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.441888473572249</v>
+        <v>0.4423064552842391</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9978994641853589</v>
+        <v>0.3330817779843969</v>
       </c>
       <c r="N11">
-        <v>0.5145650282891483</v>
+        <v>1.328790374165945</v>
       </c>
       <c r="O11">
-        <v>1.602756801554307</v>
+        <v>2.309005371899985</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.340309216628469</v>
+        <v>0.4234539353997491</v>
       </c>
       <c r="C12">
-        <v>0.2252845501131588</v>
+        <v>0.07090556467512954</v>
       </c>
       <c r="D12">
-        <v>0.09457639386566541</v>
+        <v>0.04005945384714948</v>
       </c>
       <c r="E12">
-        <v>0.5746826469839874</v>
+        <v>0.2205565188960321</v>
       </c>
       <c r="F12">
-        <v>0.6260218411539924</v>
+        <v>0.6958901599160967</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2696014588800786</v>
+        <v>0.5018985859327074</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.478359259083788</v>
+        <v>0.4531754927479881</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.02474944132878</v>
+        <v>0.3403087657653003</v>
       </c>
       <c r="N12">
-        <v>0.5053886790462045</v>
+        <v>1.324926337391299</v>
       </c>
       <c r="O12">
-        <v>1.624309033144016</v>
+        <v>2.310033081221917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.333135025266728</v>
+        <v>0.4213261225855831</v>
       </c>
       <c r="C13">
-        <v>0.2241366944628709</v>
+        <v>0.07056110108888447</v>
       </c>
       <c r="D13">
-        <v>0.09414722142481935</v>
+        <v>0.03991634064050942</v>
       </c>
       <c r="E13">
-        <v>0.5713673951476181</v>
+        <v>0.2197561272542572</v>
       </c>
       <c r="F13">
-        <v>0.6236466392523923</v>
+        <v>0.6955574373949744</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2692494108921224</v>
+        <v>0.502015480120086</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.470500952467802</v>
+        <v>0.4508349721826619</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.018959219876848</v>
+        <v>0.3387517772626083</v>
       </c>
       <c r="N13">
-        <v>0.5073563641938037</v>
+        <v>1.325755282212167</v>
       </c>
       <c r="O13">
-        <v>1.619638051217379</v>
+        <v>2.309802842954412</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.309750764494652</v>
+        <v>0.4143863450379683</v>
       </c>
       <c r="C14">
-        <v>0.2203957681104214</v>
+        <v>0.06943725776659448</v>
       </c>
       <c r="D14">
-        <v>0.09274752355396743</v>
+        <v>0.03944928846323847</v>
       </c>
       <c r="E14">
-        <v>0.560584666889099</v>
+        <v>0.2171489377885578</v>
       </c>
       <c r="F14">
-        <v>0.6159372317146961</v>
+        <v>0.6944828934548113</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2681221329566341</v>
+        <v>0.502403676440494</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.444887315436745</v>
+        <v>0.4432008015515123</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.000105037641994</v>
+        <v>0.3336761089549753</v>
       </c>
       <c r="N14">
-        <v>0.5138062208330303</v>
+        <v>1.32847101555876</v>
       </c>
       <c r="O14">
-        <v>1.604516779347705</v>
+        <v>2.3090859105981</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.295436472039881</v>
+        <v>0.4101351419598416</v>
       </c>
       <c r="C15">
-        <v>0.218106196259825</v>
+        <v>0.0687485088501063</v>
       </c>
       <c r="D15">
-        <v>0.09189010534873887</v>
+        <v>0.03916295337283771</v>
       </c>
       <c r="E15">
-        <v>0.55400185666673</v>
+        <v>0.2155543080411917</v>
       </c>
       <c r="F15">
-        <v>0.61124282729741</v>
+        <v>0.6938328007976082</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2674474885769307</v>
+        <v>0.5026468201459728</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.429208709409494</v>
+        <v>0.4385237194109664</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9885781621131287</v>
+        <v>0.3305686599834061</v>
       </c>
       <c r="N15">
-        <v>0.5177819762656031</v>
+        <v>1.330143979919698</v>
       </c>
       <c r="O15">
-        <v>1.595339533248989</v>
+        <v>2.308672835102072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.213539113937486</v>
+        <v>0.3857676135758936</v>
       </c>
       <c r="C16">
-        <v>0.2050118780880297</v>
+        <v>0.06479604494688829</v>
       </c>
       <c r="D16">
-        <v>0.08697535947661805</v>
+        <v>0.03751824239180479</v>
       </c>
       <c r="E16">
-        <v>0.5165989400885351</v>
+        <v>0.2064519885076379</v>
       </c>
       <c r="F16">
-        <v>0.5847544393979049</v>
+        <v>0.6902314835553653</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2638178456539535</v>
+        <v>0.5041223457639745</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.339510420826883</v>
+        <v>0.4117073206466557</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9228403229557287</v>
+        <v>0.3127848063828296</v>
       </c>
       <c r="N16">
-        <v>0.5409418788520943</v>
+        <v>1.339876597074321</v>
       </c>
       <c r="O16">
-        <v>1.54401225596888</v>
+        <v>2.306705105875807</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.163405419633108</v>
+        <v>0.3708143157542736</v>
       </c>
       <c r="C17">
-        <v>0.1970001630600962</v>
+        <v>0.06236644434434879</v>
       </c>
       <c r="D17">
-        <v>0.08395894359458111</v>
+        <v>0.03650586517640875</v>
       </c>
       <c r="E17">
-        <v>0.4939230942300696</v>
+        <v>0.2008998488274827</v>
       </c>
       <c r="F17">
-        <v>0.56885948921731</v>
+        <v>0.6881329327389238</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2617953924413001</v>
+        <v>0.5051008290861638</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.284604878224854</v>
+        <v>0.3952442840499373</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8827781423206034</v>
+        <v>0.3018961272556808</v>
       </c>
       <c r="N17">
-        <v>0.5554779911679557</v>
+        <v>1.345977037666815</v>
       </c>
       <c r="O17">
-        <v>1.513611497044025</v>
+        <v>2.3058543013708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.134605497906023</v>
+        <v>0.3622120355556433</v>
       </c>
       <c r="C18">
-        <v>0.1923989763894554</v>
+        <v>0.06096721865567645</v>
       </c>
       <c r="D18">
-        <v>0.0822233652702522</v>
+        <v>0.03592233347639961</v>
       </c>
       <c r="E18">
-        <v>0.4809733436828907</v>
+        <v>0.1977180424039275</v>
       </c>
       <c r="F18">
-        <v>0.5598421112475549</v>
+        <v>0.6869665997380139</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2607045538746391</v>
+        <v>0.5056905536538423</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.253064701426496</v>
+        <v>0.3857709079174185</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8598262353639683</v>
+        <v>0.2956410188877783</v>
       </c>
       <c r="N18">
-        <v>0.5639564545922264</v>
+        <v>1.349533522306449</v>
       </c>
       <c r="O18">
-        <v>1.496509422206827</v>
+        <v>2.305495855276661</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.124860100806501</v>
+        <v>0.3592992016785388</v>
       </c>
       <c r="C19">
-        <v>0.1908422063526842</v>
+        <v>0.06049315986935255</v>
       </c>
       <c r="D19">
-        <v>0.08163561242393769</v>
+        <v>0.03572454784844581</v>
       </c>
       <c r="E19">
-        <v>0.4766041390512825</v>
+        <v>0.1966427301779277</v>
       </c>
       <c r="F19">
-        <v>0.5568099456927698</v>
+        <v>0.6865786894271082</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2603474104622556</v>
+        <v>0.5058948480937104</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.24239219226672</v>
+        <v>0.3825626662036257</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8520700728508572</v>
+        <v>0.2935244818015548</v>
       </c>
       <c r="N19">
-        <v>0.5668470537745951</v>
+        <v>1.350745872198777</v>
       </c>
       <c r="O19">
-        <v>1.49078338432588</v>
+        <v>2.305396972679091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.168738460353154</v>
+        <v>0.3724062825837962</v>
       </c>
       <c r="C20">
-        <v>0.1978522865680077</v>
+        <v>0.06262526439817862</v>
       </c>
       <c r="D20">
-        <v>0.08428010751919857</v>
+        <v>0.03661376293756291</v>
       </c>
       <c r="E20">
-        <v>0.4963272338606259</v>
+        <v>0.2014896777180439</v>
       </c>
       <c r="F20">
-        <v>0.5705384792301089</v>
+        <v>0.6883521149957943</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2620031324050736</v>
+        <v>0.5049938808298009</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.290445421553102</v>
+        <v>0.3969972480895478</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.887033280060173</v>
+        <v>0.3030544414522893</v>
       </c>
       <c r="N20">
-        <v>0.5539183526540228</v>
+        <v>1.345322700819896</v>
       </c>
       <c r="O20">
-        <v>1.516807655478772</v>
+        <v>2.305931320993409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.31661733925381</v>
+        <v>0.4164248078425317</v>
       </c>
       <c r="C21">
-        <v>0.2214941774212775</v>
+        <v>0.0697674334025038</v>
       </c>
       <c r="D21">
-        <v>0.09315866119938931</v>
+        <v>0.03958652561502163</v>
       </c>
       <c r="E21">
-        <v>0.563747209212643</v>
+        <v>0.2179142426377894</v>
       </c>
       <c r="F21">
-        <v>0.6181958396564582</v>
+        <v>0.6947968257549064</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2684499239795706</v>
+        <v>0.502288536231724</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.452408448786969</v>
+        <v>0.4454433376427573</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.005638372016868</v>
+        <v>0.3351666339369999</v>
       </c>
       <c r="N21">
-        <v>0.5119065074099656</v>
+        <v>1.327671359052411</v>
       </c>
       <c r="O21">
-        <v>1.608940462170267</v>
+        <v>2.309291058616964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.41366769997714</v>
+        <v>0.4451764668426677</v>
       </c>
       <c r="C22">
-        <v>0.2370261278656756</v>
+        <v>0.07441907010650084</v>
       </c>
       <c r="D22">
-        <v>0.09895819891313806</v>
+        <v>0.04151814064819348</v>
       </c>
       <c r="E22">
-        <v>0.6087740346929422</v>
+        <v>0.2287536149552523</v>
       </c>
       <c r="F22">
-        <v>0.6505735169863414</v>
+        <v>0.6993712015774065</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2733653374765339</v>
+        <v>0.5007604139090027</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.558717436417652</v>
+        <v>0.477064347634041</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.084112991600264</v>
+        <v>0.3562229420233791</v>
       </c>
       <c r="N22">
-        <v>0.485561636940175</v>
+        <v>1.31656027930473</v>
       </c>
       <c r="O22">
-        <v>1.672914542843699</v>
+        <v>2.312653406006575</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.361828900727829</v>
+        <v>0.4298328793688029</v>
       </c>
       <c r="C23">
-        <v>0.2287281022683914</v>
+        <v>0.07193789939962869</v>
       </c>
       <c r="D23">
-        <v>0.09586304168646365</v>
+        <v>0.04048824220406999</v>
       </c>
       <c r="E23">
-        <v>0.584647169111463</v>
+        <v>0.2229587684464889</v>
       </c>
       <c r="F23">
-        <v>0.6331743704431716</v>
+        <v>0.6968966142794955</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2706747680021238</v>
+        <v>0.5015540341581826</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.501931457268569</v>
+        <v>0.4601915572911253</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.042134179111251</v>
+        <v>0.3449784721319986</v>
       </c>
       <c r="N23">
-        <v>0.499517366718734</v>
+        <v>1.322451547424483</v>
       </c>
       <c r="O23">
-        <v>1.638408980893701</v>
+        <v>2.31075207914219</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166327323151052</v>
+        <v>0.3716865712576976</v>
       </c>
       <c r="C24">
-        <v>0.1974670266103402</v>
+        <v>0.06250825937355842</v>
       </c>
       <c r="D24">
-        <v>0.08413491369724113</v>
+        <v>0.0365649870369964</v>
       </c>
       <c r="E24">
-        <v>0.4952400531566639</v>
+        <v>0.2012229843448452</v>
       </c>
       <c r="F24">
-        <v>0.5697790327302528</v>
+        <v>0.6882528976267608</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2619089898438816</v>
+        <v>0.5050421474693856</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.287804832787742</v>
+        <v>0.3962047596664604</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.885109283565626</v>
+        <v>0.3025307522237881</v>
       </c>
       <c r="N24">
-        <v>0.5546230876065867</v>
+        <v>1.345618373069334</v>
       </c>
       <c r="O24">
-        <v>1.515361505665027</v>
+        <v>2.305896093327902</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.95676705626326</v>
+        <v>0.3089092496148567</v>
       </c>
       <c r="C25">
-        <v>0.1640029182383813</v>
+        <v>0.05226881286893104</v>
       </c>
       <c r="D25">
-        <v>0.07145944286823891</v>
+        <v>0.03228586489761653</v>
       </c>
       <c r="E25">
-        <v>0.4022803103861037</v>
+        <v>0.1782214503702946</v>
       </c>
       <c r="F25">
-        <v>0.506115290623562</v>
+        <v>0.6804851550020956</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2551936646045654</v>
+        <v>0.5098339870783803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.058314895211993</v>
+        <v>0.3270229531892141</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7191292738327348</v>
+        <v>0.2570410035936632</v>
       </c>
       <c r="N25">
-        <v>0.618530199373819</v>
+        <v>1.372429904822181</v>
       </c>
       <c r="O25">
-        <v>1.397128898488518</v>
+        <v>2.305662644113539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_248/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2626439540343881</v>
+        <v>0.8031530656104735</v>
       </c>
       <c r="C2">
-        <v>0.0446708425689053</v>
+        <v>0.1394876803215794</v>
       </c>
       <c r="D2">
-        <v>0.02909498636205399</v>
+        <v>0.06209140578459227</v>
       </c>
       <c r="E2">
-        <v>0.1616557201687172</v>
+        <v>0.3361519779244162</v>
       </c>
       <c r="F2">
-        <v>0.6761016312668175</v>
+        <v>0.4627096534770345</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.51424661532889</v>
+        <v>0.2523244910408629</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2759508768190813</v>
+        <v>0.8900909318217884</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2237944772581884</v>
+        <v>0.5990857558848077</v>
       </c>
       <c r="N2">
-        <v>1.393739124542983</v>
+        <v>0.6691213628423607</v>
       </c>
       <c r="O2">
-        <v>2.309787272667847</v>
+        <v>1.320840753976938</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2312670127791705</v>
+        <v>0.6992702390072623</v>
       </c>
       <c r="C3">
-        <v>0.0394850306292085</v>
+        <v>0.1229078877911149</v>
       </c>
       <c r="D3">
-        <v>0.02690771662441449</v>
+        <v>0.05571439361077779</v>
       </c>
       <c r="E3">
-        <v>0.1506542875430625</v>
+        <v>0.2924777773371758</v>
       </c>
       <c r="F3">
-        <v>0.6739632195842447</v>
+        <v>0.4351880299789528</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5177883982839653</v>
+        <v>0.2515455513159743</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2412588829808584</v>
+        <v>0.7763137539733691</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2014137900475745</v>
+        <v>0.5187421690662859</v>
       </c>
       <c r="N3">
-        <v>1.409158980308023</v>
+        <v>0.7054736937887165</v>
       </c>
       <c r="O3">
-        <v>2.315259363369776</v>
+        <v>1.275077932519096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2119921810150061</v>
+        <v>0.6355344610799136</v>
       </c>
       <c r="C4">
-        <v>0.03628295256886815</v>
+        <v>0.1127319071947568</v>
       </c>
       <c r="D4">
-        <v>0.02555262494085753</v>
+        <v>0.05178310933967367</v>
       </c>
       <c r="E4">
-        <v>0.1440088162510449</v>
+        <v>0.2661328116176591</v>
       </c>
       <c r="F4">
-        <v>0.6730606114818301</v>
+        <v>0.4191414972645902</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.520234893108146</v>
+        <v>0.251602433017279</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2199201065871108</v>
+        <v>0.7064963363414591</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1877455117827651</v>
+        <v>0.4698066342716345</v>
       </c>
       <c r="N4">
-        <v>1.419109454894444</v>
+        <v>0.728770008105632</v>
       </c>
       <c r="O4">
-        <v>2.3199387537679</v>
+        <v>1.249669935445027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2041356344397798</v>
+        <v>0.6095657327863648</v>
       </c>
       <c r="C5">
-        <v>0.03497359817490064</v>
+        <v>0.1085844079153446</v>
       </c>
       <c r="D5">
-        <v>0.02499740016403962</v>
+        <v>0.05017687924837588</v>
       </c>
       <c r="E5">
-        <v>0.1413280663308143</v>
+        <v>0.2555028229897331</v>
       </c>
       <c r="F5">
-        <v>0.6727960059232956</v>
+        <v>0.4128050585194174</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5213002022678914</v>
+        <v>0.2517545814574582</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2112153133948453</v>
+        <v>0.6780463227586466</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1821940663906858</v>
+        <v>0.4499504351346673</v>
       </c>
       <c r="N5">
-        <v>1.423285683620098</v>
+        <v>0.7385025905128355</v>
       </c>
       <c r="O5">
-        <v>2.322177404874338</v>
+        <v>1.239959128274194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2028309590987476</v>
+        <v>0.6052536650384468</v>
       </c>
       <c r="C6">
-        <v>0.03475591128281508</v>
+        <v>0.107895627616216</v>
       </c>
       <c r="D6">
-        <v>0.02490502431876962</v>
+        <v>0.04990990573193699</v>
       </c>
       <c r="E6">
-        <v>0.1408845752026195</v>
+        <v>0.2537437540616168</v>
       </c>
       <c r="F6">
-        <v>0.6727583028703208</v>
+        <v>0.4117648099602462</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5214812234795403</v>
+        <v>0.251787476142507</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2097693539012795</v>
+        <v>0.6733220225319911</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1812733696292739</v>
+        <v>0.446658090781952</v>
       </c>
       <c r="N6">
-        <v>1.42398647040066</v>
+        <v>0.7401329455048604</v>
       </c>
       <c r="O6">
-        <v>2.322569167672839</v>
+        <v>1.238384554800007</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2118862319836694</v>
+        <v>0.6351842314698501</v>
       </c>
       <c r="C7">
-        <v>0.03626531225560825</v>
+        <v>0.1126759776361581</v>
       </c>
       <c r="D7">
-        <v>0.02554514915053119</v>
+        <v>0.05176146446348184</v>
       </c>
       <c r="E7">
-        <v>0.1439725522973916</v>
+        <v>0.2659890397476232</v>
       </c>
       <c r="F7">
-        <v>0.6730566249812213</v>
+        <v>0.4190552361718574</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5202489835371296</v>
+        <v>0.2516039699659061</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2198027468574821</v>
+        <v>0.7061126569824268</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1876705681960402</v>
+        <v>0.4695385187932359</v>
       </c>
       <c r="N7">
-        <v>1.419165285756348</v>
+        <v>0.7289003048430325</v>
       </c>
       <c r="O7">
-        <v>2.31996760176375</v>
+        <v>1.249536410963472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2518273575386729</v>
+        <v>0.7673190992381649</v>
       </c>
       <c r="C8">
-        <v>0.04288652456628483</v>
+        <v>0.1337690434994414</v>
       </c>
       <c r="D8">
-        <v>0.02834334347537038</v>
+        <v>0.0598957393056665</v>
       </c>
       <c r="E8">
-        <v>0.157839591933346</v>
+        <v>0.3209874566408146</v>
       </c>
       <c r="F8">
-        <v>0.6752791407178051</v>
+        <v>0.4530362644552994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5154113981854245</v>
+        <v>0.2519413889161015</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2639971570716853</v>
+        <v>0.8508459007227884</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2160623391304739</v>
+        <v>0.5712924081537949</v>
       </c>
       <c r="N8">
-        <v>1.398955706616188</v>
+        <v>0.6814492718755687</v>
       </c>
       <c r="O8">
-        <v>2.311400157977289</v>
+        <v>1.30448268644507</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3300630182176576</v>
+        <v>1.027222840915954</v>
       </c>
       <c r="C9">
-        <v>0.0557271054068309</v>
+        <v>0.1752499867458397</v>
       </c>
       <c r="D9">
-        <v>0.0337335709402069</v>
+        <v>0.07573377622163235</v>
       </c>
       <c r="E9">
-        <v>0.1859112902867395</v>
+        <v>0.4331911289745989</v>
       </c>
       <c r="F9">
-        <v>0.6828940875429979</v>
+        <v>0.5269839232662363</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5080824076852686</v>
+        <v>0.2571153592020359</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.350348169602114</v>
+        <v>1.135469389474679</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2723253808234247</v>
+        <v>0.7746554342219909</v>
       </c>
       <c r="N9">
-        <v>1.363154859715013</v>
+        <v>0.5964340686809009</v>
       </c>
       <c r="O9">
-        <v>2.305073390092872</v>
+        <v>1.435174761226534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3874736691849989</v>
+        <v>1.219264829046779</v>
       </c>
       <c r="C10">
-        <v>0.06507303656532315</v>
+        <v>0.2059270724137292</v>
       </c>
       <c r="D10">
-        <v>0.03763359301458991</v>
+        <v>0.08731947791092409</v>
       </c>
       <c r="E10">
-        <v>0.2070871077645222</v>
+        <v>0.5191994359983525</v>
       </c>
       <c r="F10">
-        <v>0.6904764574293978</v>
+        <v>0.5865854867583735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5040143433520683</v>
+        <v>0.264058623312458</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4135852775735884</v>
+        <v>1.345781279538215</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3140283333137361</v>
+        <v>0.9274244938388634</v>
       </c>
       <c r="N10">
-        <v>1.339186956067694</v>
+        <v>0.5392993648172177</v>
       </c>
       <c r="O10">
-        <v>2.306819930583288</v>
+        <v>1.547534308687744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4135734076572817</v>
+        <v>1.307012893512251</v>
       </c>
       <c r="C11">
-        <v>0.0693055693616742</v>
+        <v>0.21995782373655</v>
       </c>
       <c r="D11">
-        <v>0.03939454736510584</v>
+        <v>0.09258356289959124</v>
       </c>
       <c r="E11">
-        <v>0.2168438565599402</v>
+        <v>0.5593245448704423</v>
       </c>
       <c r="F11">
-        <v>0.6943580956012454</v>
+        <v>0.6150378782978407</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5024498549212915</v>
+        <v>0.2679921858061576</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4423064552842391</v>
+        <v>1.441888473572106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3330817779843969</v>
+        <v>0.9978994641853518</v>
       </c>
       <c r="N11">
-        <v>1.328790374165945</v>
+        <v>0.5145650282891372</v>
       </c>
       <c r="O11">
-        <v>2.309005371899985</v>
+        <v>1.602756801554307</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4234539353997491</v>
+        <v>1.340309216628441</v>
       </c>
       <c r="C12">
-        <v>0.07090556467512954</v>
+        <v>0.2252845501126188</v>
       </c>
       <c r="D12">
-        <v>0.04005945384714948</v>
+        <v>0.09457639386555172</v>
       </c>
       <c r="E12">
-        <v>0.2205565188960321</v>
+        <v>0.5746826469840443</v>
       </c>
       <c r="F12">
-        <v>0.6958901599160967</v>
+        <v>0.6260218411539924</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5018985859327074</v>
+        <v>0.2696014588800644</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4531754927479881</v>
+        <v>1.478359259083675</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3403087657653003</v>
+        <v>1.024749441328801</v>
       </c>
       <c r="N12">
-        <v>1.324926337391299</v>
+        <v>0.5053886790461972</v>
       </c>
       <c r="O12">
-        <v>2.310033081221917</v>
+        <v>1.624309033144016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4213261225855831</v>
+        <v>1.333135025266756</v>
       </c>
       <c r="C13">
-        <v>0.07056110108888447</v>
+        <v>0.2241366944630272</v>
       </c>
       <c r="D13">
-        <v>0.03991634064050942</v>
+        <v>0.09414722142479803</v>
       </c>
       <c r="E13">
-        <v>0.2197561272542572</v>
+        <v>0.5713673951476608</v>
       </c>
       <c r="F13">
-        <v>0.6955574373949744</v>
+        <v>0.623646639252371</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.502015480120086</v>
+        <v>0.2692494108921188</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4508349721826619</v>
+        <v>1.470500952467859</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3387517772626083</v>
+        <v>1.018959219876855</v>
       </c>
       <c r="N13">
-        <v>1.325755282212167</v>
+        <v>0.5073563641937835</v>
       </c>
       <c r="O13">
-        <v>2.309802842954412</v>
+        <v>1.619638051217379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4143863450379683</v>
+        <v>1.309750764494595</v>
       </c>
       <c r="C14">
-        <v>0.06943725776659448</v>
+        <v>0.2203957681106061</v>
       </c>
       <c r="D14">
-        <v>0.03944928846323847</v>
+        <v>0.09274752355386084</v>
       </c>
       <c r="E14">
-        <v>0.2171489377885578</v>
+        <v>0.5605846668891132</v>
       </c>
       <c r="F14">
-        <v>0.6944828934548113</v>
+        <v>0.6159372317146889</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.502403676440494</v>
+        <v>0.2681221329566412</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4432008015515123</v>
+        <v>1.444887315436745</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3336761089549753</v>
+        <v>1.000105037642001</v>
       </c>
       <c r="N14">
-        <v>1.32847101555876</v>
+        <v>0.5138062208330174</v>
       </c>
       <c r="O14">
-        <v>2.3090859105981</v>
+        <v>1.604516779347705</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4101351419598416</v>
+        <v>1.295436472039881</v>
       </c>
       <c r="C15">
-        <v>0.0687485088501063</v>
+        <v>0.2181061962598108</v>
       </c>
       <c r="D15">
-        <v>0.03916295337283771</v>
+        <v>0.09189010534874598</v>
       </c>
       <c r="E15">
-        <v>0.2155543080411917</v>
+        <v>0.55400185666673</v>
       </c>
       <c r="F15">
-        <v>0.6938328007976082</v>
+        <v>0.6112428272974171</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5026468201459728</v>
+        <v>0.2674474885769378</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4385237194109664</v>
+        <v>1.429208709409494</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3305686599834061</v>
+        <v>0.9885781621131358</v>
       </c>
       <c r="N15">
-        <v>1.330143979919698</v>
+        <v>0.5177819762656515</v>
       </c>
       <c r="O15">
-        <v>2.308672835102072</v>
+        <v>1.595339533248989</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3857676135758936</v>
+        <v>1.213539113937344</v>
       </c>
       <c r="C16">
-        <v>0.06479604494688829</v>
+        <v>0.2050118780878023</v>
       </c>
       <c r="D16">
-        <v>0.03751824239180479</v>
+        <v>0.08697535947656831</v>
       </c>
       <c r="E16">
-        <v>0.2064519885076379</v>
+        <v>0.5165989400885493</v>
       </c>
       <c r="F16">
-        <v>0.6902314835553653</v>
+        <v>0.5847544393978978</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5041223457639745</v>
+        <v>0.2638178456539499</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4117073206466557</v>
+        <v>1.339510420826826</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3127848063828296</v>
+        <v>0.9228403229557287</v>
       </c>
       <c r="N16">
-        <v>1.339876597074321</v>
+        <v>0.5409418788521401</v>
       </c>
       <c r="O16">
-        <v>2.306705105875807</v>
+        <v>1.544012255968852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3708143157542736</v>
+        <v>1.163405419633193</v>
       </c>
       <c r="C17">
-        <v>0.06236644434434879</v>
+        <v>0.1970001630600251</v>
       </c>
       <c r="D17">
-        <v>0.03650586517640875</v>
+        <v>0.08395894359448874</v>
       </c>
       <c r="E17">
-        <v>0.2008998488274827</v>
+        <v>0.4939230942300767</v>
       </c>
       <c r="F17">
-        <v>0.6881329327389238</v>
+        <v>0.5688594892172958</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5051008290861638</v>
+        <v>0.261795392441293</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3952442840499373</v>
+        <v>1.284604878224997</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3018961272556808</v>
+        <v>0.8827781423206034</v>
       </c>
       <c r="N17">
-        <v>1.345977037666815</v>
+        <v>0.5554779911679004</v>
       </c>
       <c r="O17">
-        <v>2.3058543013708</v>
+        <v>1.513611497044053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3622120355556433</v>
+        <v>1.134605497905937</v>
       </c>
       <c r="C18">
-        <v>0.06096721865567645</v>
+        <v>0.1923989763894696</v>
       </c>
       <c r="D18">
-        <v>0.03592233347639961</v>
+        <v>0.08222336527047958</v>
       </c>
       <c r="E18">
-        <v>0.1977180424039275</v>
+        <v>0.4809733436828978</v>
       </c>
       <c r="F18">
-        <v>0.6869665997380139</v>
+        <v>0.5598421112475762</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5056905536538423</v>
+        <v>0.2607045538746426</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3857709079174185</v>
+        <v>1.253064701426325</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2956410188877783</v>
+        <v>0.8598262353639612</v>
       </c>
       <c r="N18">
-        <v>1.349533522306449</v>
+        <v>0.5639564545922333</v>
       </c>
       <c r="O18">
-        <v>2.305495855276661</v>
+        <v>1.496509422206856</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3592992016785388</v>
+        <v>1.124860100806416</v>
       </c>
       <c r="C19">
-        <v>0.06049315986935255</v>
+        <v>0.1908422063526416</v>
       </c>
       <c r="D19">
-        <v>0.03572454784844581</v>
+        <v>0.08163561242409401</v>
       </c>
       <c r="E19">
-        <v>0.1966427301779277</v>
+        <v>0.4766041390512683</v>
       </c>
       <c r="F19">
-        <v>0.6865786894271082</v>
+        <v>0.5568099456927698</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5058948480937104</v>
+        <v>0.2603474104622556</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3825626662036257</v>
+        <v>1.242392192266664</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2935244818015548</v>
+        <v>0.852070072850843</v>
       </c>
       <c r="N19">
-        <v>1.350745872198777</v>
+        <v>0.5668470537746493</v>
       </c>
       <c r="O19">
-        <v>2.305396972679091</v>
+        <v>1.490783384325852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3724062825837962</v>
+        <v>1.168738460352984</v>
       </c>
       <c r="C20">
-        <v>0.06262526439817862</v>
+        <v>0.1978522865677519</v>
       </c>
       <c r="D20">
-        <v>0.03661376293756291</v>
+        <v>0.08428010751936199</v>
       </c>
       <c r="E20">
-        <v>0.2014896777180439</v>
+        <v>0.4963272338606259</v>
       </c>
       <c r="F20">
-        <v>0.6883521149957943</v>
+        <v>0.5705384792300947</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5049938808298009</v>
+        <v>0.2620031324050807</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3969972480895478</v>
+        <v>1.290445421553102</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3030544414522893</v>
+        <v>0.887033280060173</v>
       </c>
       <c r="N20">
-        <v>1.345322700819896</v>
+        <v>0.5539183526540319</v>
       </c>
       <c r="O20">
-        <v>2.305931320993409</v>
+        <v>1.5168076554788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4164248078425317</v>
+        <v>1.31661733925398</v>
       </c>
       <c r="C21">
-        <v>0.0697674334025038</v>
+        <v>0.2214941774215049</v>
       </c>
       <c r="D21">
-        <v>0.03958652561502163</v>
+        <v>0.09315866119933247</v>
       </c>
       <c r="E21">
-        <v>0.2179142426377894</v>
+        <v>0.5637472092126501</v>
       </c>
       <c r="F21">
-        <v>0.6947968257549064</v>
+        <v>0.6181958396564724</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.502288536231724</v>
+        <v>0.268449923979567</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4454433376427573</v>
+        <v>1.452408448786883</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3351666339369999</v>
+        <v>1.005638372016861</v>
       </c>
       <c r="N21">
-        <v>1.327671359052411</v>
+        <v>0.5119065074099698</v>
       </c>
       <c r="O21">
-        <v>2.309291058616964</v>
+        <v>1.608940462170267</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4451764668426677</v>
+        <v>1.413667699977111</v>
       </c>
       <c r="C22">
-        <v>0.07441907010650084</v>
+        <v>0.2370261278654482</v>
       </c>
       <c r="D22">
-        <v>0.04151814064819348</v>
+        <v>0.09895819891319491</v>
       </c>
       <c r="E22">
-        <v>0.2287536149552523</v>
+        <v>0.6087740346929706</v>
       </c>
       <c r="F22">
-        <v>0.6993712015774065</v>
+        <v>0.6505735169863414</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5007604139090027</v>
+        <v>0.2733653374765339</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.477064347634041</v>
+        <v>1.55871743641751</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3562229420233791</v>
+        <v>1.084112991600271</v>
       </c>
       <c r="N22">
-        <v>1.31656027930473</v>
+        <v>0.4855616369401652</v>
       </c>
       <c r="O22">
-        <v>2.312653406006575</v>
+        <v>1.672914542843642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4298328793688029</v>
+        <v>1.361828900727659</v>
       </c>
       <c r="C23">
-        <v>0.07193789939962869</v>
+        <v>0.2287281022680219</v>
       </c>
       <c r="D23">
-        <v>0.04048824220406999</v>
+        <v>0.09586304168658444</v>
       </c>
       <c r="E23">
-        <v>0.2229587684464889</v>
+        <v>0.5846471691114701</v>
       </c>
       <c r="F23">
-        <v>0.6968966142794955</v>
+        <v>0.6331743704431716</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5015540341581826</v>
+        <v>0.2706747680021202</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4601915572911253</v>
+        <v>1.501931457268569</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3449784721319986</v>
+        <v>1.042134179111251</v>
       </c>
       <c r="N23">
-        <v>1.322451547424483</v>
+        <v>0.4995173667187298</v>
       </c>
       <c r="O23">
-        <v>2.31075207914219</v>
+        <v>1.638408980893701</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3716865712576976</v>
+        <v>1.166327323151194</v>
       </c>
       <c r="C24">
-        <v>0.06250825937355842</v>
+        <v>0.1974670266103544</v>
       </c>
       <c r="D24">
-        <v>0.0365649870369964</v>
+        <v>0.08413491369736903</v>
       </c>
       <c r="E24">
-        <v>0.2012229843448452</v>
+        <v>0.4952400531566923</v>
       </c>
       <c r="F24">
-        <v>0.6882528976267608</v>
+        <v>0.5697790327302457</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5050421474693856</v>
+        <v>0.261908989843878</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3962047596664604</v>
+        <v>1.287804832787742</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3025307522237881</v>
+        <v>0.8851092835656118</v>
       </c>
       <c r="N24">
-        <v>1.345618373069334</v>
+        <v>0.5546230876065801</v>
       </c>
       <c r="O24">
-        <v>2.305896093327902</v>
+        <v>1.515361505665055</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3089092496148567</v>
+        <v>0.9567670562632316</v>
       </c>
       <c r="C25">
-        <v>0.05226881286893104</v>
+        <v>0.164002918238694</v>
       </c>
       <c r="D25">
-        <v>0.03228586489761653</v>
+        <v>0.07145944286838812</v>
       </c>
       <c r="E25">
-        <v>0.1782214503702946</v>
+        <v>0.4022803103861179</v>
       </c>
       <c r="F25">
-        <v>0.6804851550020956</v>
+        <v>0.506115290623562</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5098339870783803</v>
+        <v>0.2551936646045405</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3270229531892141</v>
+        <v>1.058314895211936</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2570410035936632</v>
+        <v>0.7191292738327348</v>
       </c>
       <c r="N25">
-        <v>1.372429904822181</v>
+        <v>0.6185301993737955</v>
       </c>
       <c r="O25">
-        <v>2.305662644113539</v>
+        <v>1.397128898488489</v>
       </c>
     </row>
   </sheetData>
